--- a/backend/core/management/data/candidateSample.xlsx
+++ b/backend/core/management/data/candidateSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\q8tasweet2\backend\core\management\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2234EEF9-BEE0-4113-B490-60DBC2BDAB86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEF77D13-BD66-4AC8-B470-33A904430451}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="candidateSample" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="196">
   <si>
     <t>id</t>
   </si>
@@ -482,9 +482,6 @@
     <t>candidates/سعود-عبدالعزيز-سعود-راجح-العصفور-الهاجري.jpg</t>
   </si>
   <si>
-    <t>candidates/بدر-الداهوم.jpg</t>
-  </si>
-  <si>
     <t>candidates/ماجد-مساعد-عوض-مطلق-الرشاش-المطيري.png</t>
   </si>
   <si>
@@ -618,6 +615,12 @@
   </si>
   <si>
     <t>candidates/أحمد-عبدالله-سعد-زايد-مطيع-العازمي.jpg</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>candidates/بدر-الداهوم.jpeg</t>
   </si>
 </sst>
 </file>
@@ -636,6 +639,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -652,7 +656,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -686,23 +690,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -710,7 +730,7 @@
   </cellStyles>
   <dxfs count="2">
     <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -754,11 +774,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14CDEE0A-CACD-4DAD-9C06-22F13FBEB4AE}" name="candidateSample" displayName="candidateSample" ref="A1:F51" totalsRowShown="0" headerRowDxfId="1">
-  <autoFilter ref="A1:F51" xr:uid="{14CDEE0A-CACD-4DAD-9C06-22F13FBEB4AE}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{14CDEE0A-CACD-4DAD-9C06-22F13FBEB4AE}" name="candidateSample" displayName="candidateSample" ref="A1:G51" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="A1:G51" xr:uid="{14CDEE0A-CACD-4DAD-9C06-22F13FBEB4AE}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{DC61449B-1536-4FD9-90C0-39F07BF79160}" name="id"/>
     <tableColumn id="2" xr3:uid="{5EED6B42-AE6E-4FC1-8F8C-6E6B9414E0D8}" name="name"/>
+    <tableColumn id="7" xr3:uid="{1EC3C006-ED43-46B7-9CAD-24DFAF306AA1}" name="gender"/>
     <tableColumn id="3" xr3:uid="{A375EE9E-1416-449F-9C49-CC98B7A439F4}" name="family"/>
     <tableColumn id="4" xr3:uid="{9BFCB9AD-0C7F-4824-8521-4F242D5F3C21}" name="tribe"/>
     <tableColumn id="5" xr3:uid="{1339D6C5-A04C-400D-99B4-A9F849339BE2}" name="denomination"/>
@@ -1053,830 +1074,1200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="47.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="55" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="4" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>19</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>26</v>
       </c>
       <c r="B8" t="s">
         <v>27</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
         <v>28</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>29</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>30</v>
       </c>
       <c r="B9" t="s">
         <v>31</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
       <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>42</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>43</v>
       </c>
       <c r="B13" t="s">
         <v>44</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>29</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
       <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
         <v>47</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
         <v>17</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F15" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
         <v>53</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>56</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>57</v>
       </c>
       <c r="B18" t="s">
         <v>58</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>59</v>
       </c>
       <c r="B19" t="s">
         <v>60</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>25</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>61</v>
       </c>
       <c r="B20" t="s">
         <v>62</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
         <v>24</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>63</v>
       </c>
       <c r="B21" t="s">
         <v>64</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
         <v>65</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>66</v>
       </c>
       <c r="B22" t="s">
         <v>67</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>53</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>68</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
       <c r="B24" t="s">
         <v>72</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
         <v>39</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>48</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
       <c r="B26" t="s">
         <v>76</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
         <v>77</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>78</v>
       </c>
       <c r="B27" t="s">
         <v>79</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
         <v>28</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>82</v>
       </c>
       <c r="B29" t="s">
         <v>83</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>84</v>
       </c>
       <c r="B30" t="s">
         <v>85</v>
       </c>
-      <c r="D30" t="s">
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>86</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="5" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>87</v>
       </c>
       <c r="B31" t="s">
         <v>88</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
         <v>89</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>90</v>
       </c>
       <c r="B32" t="s">
         <v>91</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
         <v>7</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>92</v>
       </c>
       <c r="B33" t="s">
         <v>93</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
         <v>94</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>95</v>
       </c>
       <c r="B34" t="s">
         <v>96</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
         <v>97</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>98</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>101</v>
       </c>
       <c r="B36" t="s">
         <v>102</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
         <v>103</v>
       </c>
-      <c r="F36" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>104</v>
       </c>
       <c r="B37" t="s">
         <v>105</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
         <v>39</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>48</v>
       </c>
-      <c r="F37" s="3" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>106</v>
       </c>
       <c r="B38" t="s">
         <v>107</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>109</v>
       </c>
       <c r="B39" t="s">
         <v>110</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
         <v>111</v>
       </c>
-      <c r="F39" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>112</v>
       </c>
       <c r="B40" t="s">
         <v>113</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
         <v>114</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>115</v>
       </c>
       <c r="B41" t="s">
         <v>116</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
         <v>117</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>118</v>
       </c>
       <c r="B42" t="s">
         <v>119</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
         <v>7</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>120</v>
       </c>
       <c r="B43" t="s">
         <v>121</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
         <v>28</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>122</v>
       </c>
       <c r="B44" t="s">
         <v>123</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="3" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>125</v>
       </c>
       <c r="B45" t="s">
         <v>126</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
         <v>28</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>127</v>
       </c>
       <c r="B46" t="s">
         <v>128</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
         <v>129</v>
       </c>
-      <c r="F46" s="3" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>130</v>
       </c>
       <c r="B47" t="s">
         <v>131</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
         <v>14</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>132</v>
       </c>
       <c r="B48" t="s">
         <v>133</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
         <v>134</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G48" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>135</v>
       </c>
       <c r="B49" t="s">
         <v>136</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
         <v>137</v>
       </c>
-      <c r="F49" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G49" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
         <v>140</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>11</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>8</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G50" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>141</v>
       </c>
       <c r="B51" t="s">
         <v>142</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
         <v>143</v>
       </c>
-      <c r="D51" t="s">
+      <c r="E51" t="s">
         <v>11</v>
       </c>
-      <c r="E51" t="s">
+      <c r="F51" t="s">
         <v>8</v>
       </c>
-      <c r="F51" s="3" t="s">
-        <v>194</v>
+      <c r="G51" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>112</v>
+      </c>
+      <c r="B52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>114</v>
+      </c>
+      <c r="G52" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>117</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>7</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>120</v>
+      </c>
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>28</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>124</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>125</v>
+      </c>
+      <c r="B57" t="s">
+        <v>126</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>28</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>127</v>
+      </c>
+      <c r="B58" t="s">
+        <v>128</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>130</v>
+      </c>
+      <c r="B59" t="s">
+        <v>131</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>132</v>
+      </c>
+      <c r="B60" t="s">
+        <v>133</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>134</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B61" t="s">
+        <v>136</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>137</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>138</v>
+      </c>
+      <c r="B62" t="s">
+        <v>139</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>140</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>8</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>141</v>
+      </c>
+      <c r="B63" t="s">
+        <v>142</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>143</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+      <c r="F63" t="s">
+        <v>8</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
